--- a/excel/data/cardColor.xlsx
+++ b/excel/data/cardColor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>##type</t>
   </si>
@@ -717,7 +717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,9 +725,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,29 +1041,28 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.95" customWidth="1"/>
+    <col min="2" max="2" width="17.9038461538462" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.9038461538462" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.9038461538462" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.9519230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1074,10 +1070,13 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1085,14 +1084,13 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1100,16 +1098,16 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1217,7 +1215,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1234,7 +1232,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
